--- a/data/trans_dic/P37-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.3483097780655898</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5936779023287787</v>
+        <v>0.5936779023287786</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2395416962756604</v>
+        <v>0.2408293820404425</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3214091412311278</v>
+        <v>0.3217329494691799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3053708512164268</v>
+        <v>0.3035611581672312</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4789552543195831</v>
+        <v>0.4751625800771681</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2730879740605586</v>
+        <v>0.2721712742296153</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3108740246081855</v>
+        <v>0.3087506142200301</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3199526776060477</v>
+        <v>0.3260078569444548</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6189107173463976</v>
+        <v>0.619481844333951</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2661848668237235</v>
+        <v>0.2665387540936572</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3227368502442345</v>
+        <v>0.3216121917013517</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3243952034716369</v>
+        <v>0.3244914543817038</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5713316432684217</v>
+        <v>0.5692625949917576</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2918695453430472</v>
+        <v>0.2932517417481469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3823707754193976</v>
+        <v>0.3866717594122476</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3743127518586568</v>
+        <v>0.373412051676346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5609427287223337</v>
+        <v>0.5624145136648129</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3217939024967825</v>
+        <v>0.3232984215265727</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3631558179547726</v>
+        <v>0.3621642282043697</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3888167762304799</v>
+        <v>0.392411692155391</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6715741639009279</v>
+        <v>0.6713193425454093</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3020724692903551</v>
+        <v>0.3015221748455074</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3617251731762438</v>
+        <v>0.362178719045899</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3709623084113982</v>
+        <v>0.3699271169978059</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6166758832444602</v>
+        <v>0.6176031594689007</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1043534004942094</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2479864441515188</v>
+        <v>0.2479864441515189</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06303104467240853</v>
@@ -821,7 +821,7 @@
         <v>0.1018466673481088</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2682131941302226</v>
+        <v>0.2682131941302225</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.06627389717038515</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05786497314096358</v>
+        <v>0.05745579081716985</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09334929616608564</v>
+        <v>0.09195947407079365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09037210566061425</v>
+        <v>0.09164910250619758</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2291464498356726</v>
+        <v>0.2281489620123889</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0509906260733021</v>
+        <v>0.05146618524591269</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07528681763816619</v>
+        <v>0.07483744388560709</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08745192249944359</v>
+        <v>0.0882246517587856</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2509012086530473</v>
+        <v>0.2519121191512917</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05661818253824686</v>
+        <v>0.05822121280315379</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08872125072376194</v>
+        <v>0.08868024686970644</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09310528491911363</v>
+        <v>0.09325090423631845</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2439332393688913</v>
+        <v>0.2461529234894886</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08318936359753897</v>
+        <v>0.08286746617263552</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.123495554504358</v>
+        <v>0.1208844050731408</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1177581618885841</v>
+        <v>0.1194057360274869</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2694444037283636</v>
+        <v>0.2673899479530668</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07661250635051703</v>
+        <v>0.07592306826939735</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1031499054561543</v>
+        <v>0.1054059267368962</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1163789352479198</v>
+        <v>0.1184655907059801</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.28488342121447</v>
+        <v>0.2862083093167258</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07438787470576774</v>
+        <v>0.07588287576049686</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1086011143034436</v>
+        <v>0.1096117614897706</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.113649871967618</v>
+        <v>0.113931750223474</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2692593293696365</v>
+        <v>0.2697680231713982</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1075982246867026</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3287014882777685</v>
+        <v>0.3287014882777683</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.09405702247053832</v>
@@ -969,7 +969,7 @@
         <v>0.1048363885533212</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3192564190698234</v>
+        <v>0.3192564190698233</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08404425177639049</v>
+        <v>0.08627128839564106</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08418875676576636</v>
+        <v>0.08114589162477244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08046362007744565</v>
+        <v>0.08551643717070544</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2912750265917078</v>
+        <v>0.2966803582763647</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07089248519406566</v>
+        <v>0.07211198463013316</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0652690403399642</v>
+        <v>0.06486637930184579</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07630611913572952</v>
+        <v>0.07754640321434089</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2814369887654995</v>
+        <v>0.2799926832129751</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08625625707241785</v>
+        <v>0.08713201438815588</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08159780514780506</v>
+        <v>0.08172152520722793</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08572221036508709</v>
+        <v>0.08482344048614497</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2968427462549124</v>
+        <v>0.2960446281361948</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1427031909075775</v>
+        <v>0.1433277190911867</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1450132235549841</v>
+        <v>0.1456018402650463</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1420158336753913</v>
+        <v>0.1402522213366307</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3644730041035443</v>
+        <v>0.3697904661246755</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1222903871649097</v>
+        <v>0.1237941228408374</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1221890350492932</v>
+        <v>0.1229384241586961</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1314660653244893</v>
+        <v>0.1286228902931867</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3405874747778307</v>
+        <v>0.3395835526866194</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1254848454526481</v>
+        <v>0.1262645675459571</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1241478658982398</v>
+        <v>0.1253975374218626</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1248382096671919</v>
+        <v>0.1249869266662538</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3446830420942615</v>
+        <v>0.3422150269015424</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1573411549905038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3089932348368445</v>
+        <v>0.3089932348368446</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1585118970466272</v>
@@ -1093,7 +1093,7 @@
         <v>0.1732229705297858</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.359624000455594</v>
+        <v>0.3596240004555941</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1487998107173084</v>
@@ -1105,7 +1105,7 @@
         <v>0.1654596000116721</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3350312451152104</v>
+        <v>0.3350312451152105</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1280754041279349</v>
+        <v>0.1268455631154454</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1641726959087686</v>
+        <v>0.161942807537746</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1445645683429954</v>
+        <v>0.1456143186136818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2919493346996775</v>
+        <v>0.2920150545163768</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1467255896697603</v>
+        <v>0.146255739206859</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1692529086244788</v>
+        <v>0.1699554270399832</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1604863253131727</v>
+        <v>0.1603385356135373</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3461444543651193</v>
+        <v>0.3466440009973998</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1398209032903083</v>
+        <v>0.1402316234895329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1698196939481769</v>
+        <v>0.170643889373432</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1556320948732302</v>
+        <v>0.1563083381149589</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3243369078030414</v>
+        <v>0.3244049695133862</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.150561539572192</v>
+        <v>0.1503478263911714</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1919106581551712</v>
+        <v>0.1915242288614964</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1711503898478518</v>
+        <v>0.1689406392389072</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3255167660841821</v>
+        <v>0.3255488624642991</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1723884966795035</v>
+        <v>0.1712582790597645</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1961687843190858</v>
+        <v>0.196923590794533</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1870728067090764</v>
+        <v>0.1882997669345643</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3718101745387724</v>
+        <v>0.3734292018845062</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1579303435299776</v>
+        <v>0.1575253929321466</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.189277548574894</v>
+        <v>0.1893979353810026</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1745707858594632</v>
+        <v>0.1750505296554402</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.345933404994045</v>
+        <v>0.3454755043365655</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>247141</v>
+        <v>248469</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>312929</v>
+        <v>313244</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>230356</v>
+        <v>228990</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>277090</v>
+        <v>274895</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>359142</v>
+        <v>357936</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>415886</v>
+        <v>413046</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>318244</v>
+        <v>324267</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>508321</v>
+        <v>508790</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>624692</v>
+        <v>625522</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>745978</v>
+        <v>743378</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>567369</v>
+        <v>567538</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>799776</v>
+        <v>796879</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>301129</v>
+        <v>302555</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>372282</v>
+        <v>376470</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>282362</v>
+        <v>281682</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>324522</v>
+        <v>325373</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>423195</v>
+        <v>425174</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>485829</v>
+        <v>484502</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>386740</v>
+        <v>390316</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>551574</v>
+        <v>551365</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>708914</v>
+        <v>707623</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>836096</v>
+        <v>837144</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>648816</v>
+        <v>647005</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>863251</v>
+        <v>864549</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>97936</v>
+        <v>97244</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>183056</v>
+        <v>180330</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>187647</v>
+        <v>190299</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>511126</v>
+        <v>508901</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>80860</v>
+        <v>81614</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>132259</v>
+        <v>131469</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>173881</v>
+        <v>175417</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>544805</v>
+        <v>547000</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>185610</v>
+        <v>190865</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>329840</v>
+        <v>329687</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>378444</v>
+        <v>379036</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1073784</v>
+        <v>1083555</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>140798</v>
+        <v>140253</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>242172</v>
+        <v>237051</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>244511</v>
+        <v>247932</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>601014</v>
+        <v>596431</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>121490</v>
+        <v>120397</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>181207</v>
+        <v>185170</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>231396</v>
+        <v>235545</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>618594</v>
+        <v>621470</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>243864</v>
+        <v>248765</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>403747</v>
+        <v>407504</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>461951</v>
+        <v>463097</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1185269</v>
+        <v>1187508</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>46271</v>
+        <v>47497</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>40425</v>
+        <v>38964</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>44004</v>
+        <v>46768</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>207268</v>
+        <v>211114</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33774</v>
+        <v>34355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>29934</v>
+        <v>29750</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>41903</v>
+        <v>42584</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>206822</v>
+        <v>205760</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>88583</v>
+        <v>89482</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>76604</v>
+        <v>76720</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>93954</v>
+        <v>92969</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>429372</v>
+        <v>428218</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>78566</v>
+        <v>78910</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>69631</v>
+        <v>69913</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>77666</v>
+        <v>76702</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>259354</v>
+        <v>263138</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>58261</v>
+        <v>58977</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56040</v>
+        <v>56383</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>72193</v>
+        <v>70632</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>250290</v>
+        <v>249552</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>128869</v>
+        <v>129670</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>116550</v>
+        <v>117723</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>136826</v>
+        <v>136989</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>498572</v>
+        <v>495002</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>419419</v>
+        <v>415391</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>560610</v>
+        <v>552995</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>488284</v>
+        <v>491830</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1027861</v>
+        <v>1028092</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>495536</v>
+        <v>493950</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>601382</v>
+        <v>603879</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>566854</v>
+        <v>566332</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1290283</v>
+        <v>1292145</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>930100</v>
+        <v>932832</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1183290</v>
+        <v>1189032</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1075374</v>
+        <v>1080047</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2350881</v>
+        <v>2351374</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>493056</v>
+        <v>492356</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>655328</v>
+        <v>654009</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>578081</v>
+        <v>570617</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1146041</v>
+        <v>1146154</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>582208</v>
+        <v>578391</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>697019</v>
+        <v>699701</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>660760</v>
+        <v>665094</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1385954</v>
+        <v>1391989</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1050565</v>
+        <v>1047871</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1318870</v>
+        <v>1319709</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1206235</v>
+        <v>1209550</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2507418</v>
+        <v>2504099</v>
       </c>
     </row>
     <row r="20">
